--- a/Datos/Anuario2024/060203_SociedadesLaborales.xlsx
+++ b/Datos/Anuario2024/060203_SociedadesLaborales.xlsx
@@ -1,127 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="-15" windowWidth="9720" windowHeight="12000" tabRatio="815" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9720" windowHeight="12000" tabRatio="815"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="183" r:id="rId1"/>
+    <sheet name="1" sheetId="226" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_10">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_11">#REF!</definedName>
+    <definedName name="_R4_12" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_12">#REF!</definedName>
+    <definedName name="_R4_13" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_13">#REF!</definedName>
+    <definedName name="_R4_14" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_14">#REF!</definedName>
+    <definedName name="_R4_15" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_15">#REF!</definedName>
+    <definedName name="_R4_16" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_16">#REF!</definedName>
+    <definedName name="_R4_17" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_17">#REF!</definedName>
+    <definedName name="_R4_18" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_18">#REF!</definedName>
+    <definedName name="_R4_19" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_19">#REF!</definedName>
+    <definedName name="_R4_20" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_20">#REF!</definedName>
+    <definedName name="_R4_21" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_21">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_8">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_9">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
+    <definedName name="suma" localSheetId="1">#REF!</definedName>
     <definedName name="suma">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_12" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_13" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_14" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_15" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_16" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_17" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_18" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_19" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_20" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_21" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="1">#REF!</definedName>
-    <definedName name="suma" localSheetId="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Nota: Datos a 31 de diciembre del año de referencia.</t>
+  </si>
+  <si>
+    <t>Sociedad anónima</t>
+  </si>
+  <si>
+    <t>Sociedad limitada</t>
+  </si>
+  <si>
+    <t>Fuente: Registro de Sociedades Laborales. Conselleria de Economía Sostenible, Sectores Productivos, Comercio y Trabajo</t>
+  </si>
+  <si>
+    <t>REGISTRO DE SOCIEDADES LABORALES</t>
+  </si>
+  <si>
+    <t>Nº sociedades</t>
+  </si>
+  <si>
+    <t>1. Sociedades Laborales según tipo. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
-    <font>
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,41 +185,42 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 4" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -253,7 +289,23 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF800000"/>
+      <color rgb="FF663300"/>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FFFFDCB9"/>
+      <color rgb="FF660000"/>
+      <color rgb="FFFFE397"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -543,130 +595,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja75">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja75"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>REGISTRO DE SOCIEDADES LABORALES</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja120">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja120"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="27.7109375" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>1. Sociedades Laborales según tipo. 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="1" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Nº sociedades</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="n">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
         <v>82</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>Sociedad anónima</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Sociedad limitada</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Nota: Datos a 31 de diciembre del año de referencia.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Registro de Sociedades Laborales. Conselleria de Economía Sostenible, Sectores Productivos, Comercio y Trabajo</t>
-        </is>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>